--- a/examples/minwater/data/2015-10-25/2015-10-25-prob-sens.xlsx
+++ b/examples/minwater/data/2015-10-25/2015-10-25-prob-sens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="656" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="656" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="80-80" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="80-50" sheetId="5" r:id="rId4"/>
     <sheet name="all-scen" sheetId="1" r:id="rId5"/>
     <sheet name="sel-scen" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>scen</t>
   </si>
@@ -46,17 +47,156 @@
   <si>
     <t>Water Reduc.</t>
   </si>
+  <si>
+    <t>Fitted</t>
+  </si>
+  <si>
+    <t>Orig</t>
+  </si>
+  <si>
+    <t>waterchange</t>
+  </si>
+  <si>
+    <t>alfalfa</t>
+  </si>
+  <si>
+    <t>Other_Fodder</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Fruit_fresh</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Milk_cow</t>
+  </si>
+  <si>
+    <t>Fruit_citrus</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>Meat_chicken</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Watermelons</t>
+  </si>
+  <si>
+    <t>Melons_other</t>
+  </si>
+  <si>
+    <t>Meat_cow</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Gourds</t>
+  </si>
+  <si>
+    <t>Pulses</t>
+  </si>
+  <si>
+    <t>Eggplants</t>
+  </si>
+  <si>
+    <t>Milk_camel</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>Onions</t>
+  </si>
+  <si>
+    <t>Milk_goat</t>
+  </si>
+  <si>
+    <t>Carrots_turn</t>
+  </si>
+  <si>
+    <t>Milk_sheep</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Okra</t>
+  </si>
+  <si>
+    <t>Barley</t>
+  </si>
+  <si>
+    <t>Sesameseed</t>
+  </si>
+  <si>
+    <t>Meat_camel</t>
+  </si>
+  <si>
+    <t>Meat_sheep</t>
+  </si>
+  <si>
+    <t>Groundnuts</t>
+  </si>
+  <si>
+    <t>Cabbages</t>
+  </si>
+  <si>
+    <t>Meat_goat</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -94,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -103,6 +243,23 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,7 +360,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -366,11 +522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315018448"/>
-        <c:axId val="315021584"/>
+        <c:axId val="283944648"/>
+        <c:axId val="283945040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315018448"/>
+        <c:axId val="283944648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315021584"/>
+        <c:crossAx val="283945040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -420,7 +576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315021584"/>
+        <c:axId val="283945040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315018448"/>
+        <c:crossAx val="283944648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,11 +1233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315027856"/>
-        <c:axId val="315025896"/>
+        <c:axId val="285285832"/>
+        <c:axId val="285283480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315027856"/>
+        <c:axId val="285285832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315025896"/>
+        <c:crossAx val="285283480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315025896"/>
+        <c:axId val="285283480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315027856"/>
+        <c:crossAx val="285285832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,63 +1433,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Prob Sensitivity</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1616,11 +1716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315031776"/>
-        <c:axId val="315029032"/>
+        <c:axId val="285288968"/>
+        <c:axId val="285285048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315031776"/>
+        <c:axId val="285288968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315029032"/>
+        <c:crossAx val="285285048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315029032"/>
+        <c:axId val="285285048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315031776"/>
+        <c:crossAx val="285288968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1917,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1929,11 +2028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315019624"/>
-        <c:axId val="315022368"/>
+        <c:axId val="285288184"/>
+        <c:axId val="285286224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315019624"/>
+        <c:axId val="285288184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +2074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315022368"/>
+        <c:crossAx val="285286224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +2082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315022368"/>
+        <c:axId val="285286224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315019624"/>
+        <c:crossAx val="285288184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5654,7 +5753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:L28"/>
     </sheetView>
   </sheetViews>
@@ -6922,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7218,4 +7317,755 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F1" s="9">
+        <f>SUM(D4:D40)</f>
+        <v>4990693.5999999987</v>
+      </c>
+      <c r="G1" s="9">
+        <f>SUM(E4:E40)</f>
+        <v>5714555.1999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="str">
+        <f>C2</f>
+        <v>Group</v>
+      </c>
+      <c r="L2" s="13" t="str">
+        <f t="shared" ref="L2:M2" si="0">D2</f>
+        <v>Orig</v>
+      </c>
+      <c r="M2" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Fitted</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1276138.5</v>
+      </c>
+      <c r="G3" s="12">
+        <f>E3*(F$1/G$1)</f>
+        <v>1114490.2834543621</v>
+      </c>
+      <c r="K3" s="15" t="str">
+        <f t="shared" ref="K3:K6" si="1">C3</f>
+        <v>waterchange</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="16">
+        <f>G3</f>
+        <v>1114490.2834543621</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>744645.7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>475135.5</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G40" si="2">E4*(F$1/G$1)</f>
+        <v>414950.1782715827</v>
+      </c>
+      <c r="K4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>alfalfa</v>
+      </c>
+      <c r="L4" s="16">
+        <f>D4</f>
+        <v>744645.7</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M6" si="3">G4</f>
+        <v>414950.1782715827</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11">
+        <v>369065.2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>235489.2</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="2"/>
+        <v>205659.82866157632</v>
+      </c>
+      <c r="K5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Other_Fodder</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" ref="L5:L6" si="4">D5</f>
+        <v>369065.2</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="3"/>
+        <v>205659.82866157632</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11">
+        <v>558530.6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>356381.2</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>311238.46244416712</v>
+      </c>
+      <c r="K6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>Dates</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="4"/>
+        <v>558530.6</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="3"/>
+        <v>311238.46244416712</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9">
+        <v>126000</v>
+      </c>
+      <c r="E7" s="9">
+        <v>73411.3</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="2"/>
+        <v>64112.304852297159</v>
+      </c>
+      <c r="K7" s="15" t="str">
+        <f>C9</f>
+        <v>Milk_cow</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" ref="L7:M7" si="5">D9</f>
+        <v>602330</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="5"/>
+        <v>384328.3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9">
+        <v>105623.2</v>
+      </c>
+      <c r="E8" s="9">
+        <v>67394.899999999994</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>58858.001074631313</v>
+      </c>
+      <c r="K8" s="15" t="str">
+        <f>C13</f>
+        <v>Meat_chicken</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" ref="L8:M8" si="6">D13</f>
+        <v>857680</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="6"/>
+        <v>1487604.9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11">
+        <v>602330</v>
+      </c>
+      <c r="E9" s="9">
+        <v>384328.3</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="2"/>
+        <v>335645.50870186358</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f>C16</f>
+        <v>Tomatoes</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" ref="L9:M9" si="7">D16</f>
+        <v>201451.7</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="7"/>
+        <v>36827.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44558.6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>28431.5</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="2"/>
+        <v>24830.087403548045</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f>C19</f>
+        <v>Meat_cow</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" ref="L10:M10" si="8">D19</f>
+        <v>469800</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="8"/>
+        <v>299764.90000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>16544.900000000001</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10556.8</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>9219.5721893595492</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f>C21</f>
+        <v>Eggs</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11:M11" si="9">D21</f>
+        <v>199953.6</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="9"/>
+        <v>127584.2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9">
+        <v>13349.8</v>
+      </c>
+      <c r="E12" s="9">
+        <v>8518.1</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="2"/>
+        <v>7439.1139233653739</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f>C30</f>
+        <v>Milk_sheep</v>
+      </c>
+      <c r="L12" s="16">
+        <f t="shared" ref="L12:M12" si="10">D30</f>
+        <v>26520</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="10"/>
+        <v>1731449.9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11">
+        <v>857680</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1487604.9</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="2"/>
+        <v>1299170.2755375674</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9">
+        <v>66344</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42332.1</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="2"/>
+        <v>36969.901094762368</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9">
+        <v>76655.899999999994</v>
+      </c>
+      <c r="E15" s="9">
+        <v>47837.2</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="2"/>
+        <v>41777.671144364824</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11">
+        <v>201451.7</v>
+      </c>
+      <c r="E16" s="9">
+        <v>36827.4</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="2"/>
+        <v>32162.480377237407</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9">
+        <v>44116.4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>28149.3</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="2"/>
+        <v>24583.633622872341</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9">
+        <v>41444.300000000003</v>
+      </c>
+      <c r="E18" s="9">
+        <v>26444.3</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="2"/>
+        <v>23094.605642531897</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11">
+        <v>469800</v>
+      </c>
+      <c r="E19" s="9">
+        <v>299764.90000000002</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="2"/>
+        <v>261793.73819586867</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9">
+        <v>100017.5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>63818.1</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="2"/>
+        <v>55734.27363763324</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="11">
+        <v>199953.6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>127584.2</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="2"/>
+        <v>111423.13410519158</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9">
+        <v>21577.1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>13767.7</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="2"/>
+        <v>12023.748108465204</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9">
+        <v>7840</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5002.5</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>4368.8342942246836</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9">
+        <v>12394.8</v>
+      </c>
+      <c r="E24" s="9">
+        <v>7908.7</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="2"/>
+        <v>6906.906503295304</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9">
+        <v>35700</v>
+      </c>
+      <c r="E25" s="9">
+        <v>22779.1</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="2"/>
+        <v>19893.675816406496</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9">
+        <v>49397.2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>15592.7</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>13617.575712055419</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9">
+        <v>23620.400000000001</v>
+      </c>
+      <c r="E27" s="9">
+        <v>13643.5</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="2"/>
+        <v>11915.280498401695</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="9">
+        <v>27200</v>
+      </c>
+      <c r="E28" s="9">
+        <v>17355.5</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="2"/>
+        <v>15157.082177594502</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="9">
+        <v>14030.3</v>
+      </c>
+      <c r="E29" s="9">
+        <v>8952.2999999999993</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="2"/>
+        <v>7818.313893490782</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="9">
+        <v>26520</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1731449.9</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="2"/>
+        <v>1512127.4766320637</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9">
+        <v>807.5</v>
+      </c>
+      <c r="E31" s="9">
+        <v>515.20000000000005</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="2"/>
+        <v>449.93971581900195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="9">
+        <v>28450.6</v>
+      </c>
+      <c r="E32" s="9">
+        <v>18153.5</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="2"/>
+        <v>15853.999672205457</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1352</v>
+      </c>
+      <c r="E33" s="9">
+        <v>862.7</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="2"/>
+        <v>753.42195814645379</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1691.2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1079.0999999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="2"/>
+        <v>942.41061207353448</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="9">
+        <v>47359.199999999997</v>
+      </c>
+      <c r="E35" s="9">
+        <v>30218.5</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="2"/>
+        <v>26390.728459775833</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9">
+        <v>44273.4</v>
+      </c>
+      <c r="E36" s="9">
+        <v>20649.3</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="2"/>
+        <v>18033.657169761871</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="9">
+        <v>922.5</v>
+      </c>
+      <c r="E37" s="9">
+        <v>588.6</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="2"/>
+        <v>514.04215204010973</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1173.3</v>
+      </c>
+      <c r="E38" s="9">
+        <v>748.6</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="2"/>
+        <v>653.77498303979985</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9">
+        <v>8001.6</v>
+      </c>
+      <c r="E39" s="9">
+        <v>5105.6000000000004</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="2"/>
+        <v>4458.8746372001096</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="9">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="E40" s="9">
+        <v>173</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="2"/>
+        <v>151.08612351841487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>